--- a/data/trans_orig/Q5405-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5405-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4A40748-707B-408B-A222-70C6BD5788A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AE8195A-D30B-45DD-BC65-6D661BF4B90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{36968005-BDD8-4DC0-8B90-B17925BE3FD8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{945E23E8-512E-42DB-A86D-4C7F5979D62A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="346">
   <si>
     <t>Población según si es capaz de usar un telefono en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,16 +77,16 @@
     <t>1,47%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>1,69%</t>
+    <t>1,89%</t>
   </si>
   <si>
     <t>4,8%</t>
@@ -95,10 +95,10 @@
     <t>2,44%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -107,28 +107,28 @@
     <t>4,38%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -137,957 +137,936 @@
     <t>94,15%</t>
   </si>
   <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
   </si>
   <si>
     <t>94,11%</t>
   </si>
   <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>92,52%</t>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>95,49%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>95,84%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
     <t>1,45%</t>
   </si>
   <si>
+    <t>1,5%</t>
+  </si>
+  <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
   </si>
   <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>93,07%</t>
   </si>
   <si>
-    <t>91,4%</t>
-  </si>
-  <si>
     <t>95,22%</t>
   </si>
   <si>
@@ -1095,6 +1074,9 @@
   </si>
   <si>
     <t>93,53%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F276CD1F-63A3-4E8E-85E2-0B24E593E099}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82ADB852-9D81-4F1B-BC34-F453B9DB607F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1795,7 +1777,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2332,10 +2314,10 @@
         <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,13 +2332,13 @@
         <v>476318</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>626</v>
@@ -2365,13 +2347,13 @@
         <v>639952</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M18" s="7">
         <v>1121</v>
@@ -2380,13 +2362,13 @@
         <v>1116271</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,7 +2424,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2461,7 +2443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0BCD9A-FDAD-4BCA-9D02-4141471253E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62450A2-02C0-430F-98A4-5AF497879051}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2478,7 +2460,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2585,13 +2567,13 @@
         <v>17763</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -2600,13 +2582,13 @@
         <v>27915</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -2615,13 +2597,13 @@
         <v>45678</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2618,13 @@
         <v>32335</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H5" s="7">
         <v>40</v>
@@ -2651,13 +2633,13 @@
         <v>42715</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M5" s="7">
         <v>66</v>
@@ -2666,13 +2648,13 @@
         <v>75049</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2669,13 @@
         <v>364301</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H6" s="7">
         <v>531</v>
@@ -2702,13 +2684,13 @@
         <v>563915</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M6" s="7">
         <v>866</v>
@@ -2717,13 +2699,13 @@
         <v>928215</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2773,13 @@
         <v>1446</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2812,7 +2794,7 @@
         <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2824,10 +2806,10 @@
         <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2824,13 @@
         <v>4127</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2857,13 +2839,13 @@
         <v>1100</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -2872,13 +2854,13 @@
         <v>5227</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2875,13 @@
         <v>113091</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -2908,13 +2890,13 @@
         <v>79550</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -2923,13 +2905,13 @@
         <v>192642</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,7 +2985,7 @@
         <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3018,7 +3000,7 @@
         <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3033,7 +3015,7 @@
         <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,7 +3036,7 @@
         <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3063,13 +3045,13 @@
         <v>1100</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3078,13 +3060,13 @@
         <v>1100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,7 +3084,7 @@
         <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -3114,10 +3096,10 @@
         <v>21146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>62</v>
@@ -3129,10 +3111,10 @@
         <v>47721</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>62</v>
@@ -3206,10 +3188,10 @@
         <v>27</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -3218,13 +3200,13 @@
         <v>30339</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -3233,13 +3215,13 @@
         <v>49548</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3236,13 @@
         <v>36462</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -3269,13 +3251,13 @@
         <v>44914</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -3284,13 +3266,13 @@
         <v>81376</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,13 +3287,13 @@
         <v>503966</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="H18" s="7">
         <v>622</v>
@@ -3320,13 +3302,13 @@
         <v>664612</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M18" s="7">
         <v>1078</v>
@@ -3335,13 +3317,13 @@
         <v>1168578</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,7 +3379,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3416,7 +3398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE2CCAE-E398-4A9A-AB57-01E6702C535C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602074-0855-43EB-89EA-43FFDA538A3C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3433,7 +3415,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3540,13 +3522,13 @@
         <v>8491</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -3555,13 +3537,13 @@
         <v>14093</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -3570,13 +3552,13 @@
         <v>22584</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3573,13 @@
         <v>10656</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -3606,13 +3588,13 @@
         <v>39389</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -3621,13 +3603,13 @@
         <v>50045</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,16 +3621,16 @@
         <v>364</v>
       </c>
       <c r="D6" s="7">
-        <v>334755</v>
+        <v>334754</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H6" s="7">
         <v>428</v>
@@ -3657,13 +3639,13 @@
         <v>501275</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M6" s="7">
         <v>792</v>
@@ -3672,13 +3654,13 @@
         <v>836029</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,7 +3672,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3746,13 +3728,13 @@
         <v>836</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3767,7 +3749,7 @@
         <v>67</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3776,13 +3758,13 @@
         <v>836</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,13 +3779,13 @@
         <v>1663</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3812,13 +3794,13 @@
         <v>2084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -3827,13 +3809,13 @@
         <v>3748</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,13 +3830,13 @@
         <v>190032</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>155</v>
@@ -3863,10 +3845,10 @@
         <v>185990</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>62</v>
@@ -3878,13 +3860,13 @@
         <v>376022</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +3934,13 @@
         <v>1050</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3967,13 +3949,13 @@
         <v>1376</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -3982,13 +3964,13 @@
         <v>2426</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +3985,13 @@
         <v>868</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4024,7 +4006,7 @@
         <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4033,13 +4015,13 @@
         <v>868</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,10 +4036,10 @@
         <v>40110</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>62</v>
@@ -4069,10 +4051,10 @@
         <v>32298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>62</v>
@@ -4084,13 +4066,13 @@
         <v>72408</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,13 +4140,13 @@
         <v>10378</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -4176,10 +4158,10 @@
         <v>42</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4188,13 +4170,13 @@
         <v>25847</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,10 +4194,10 @@
         <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -4224,13 +4206,13 @@
         <v>41474</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -4239,13 +4221,13 @@
         <v>54661</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4242,13 @@
         <v>564897</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H18" s="7">
         <v>608</v>
@@ -4275,13 +4257,13 @@
         <v>719563</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M18" s="7">
         <v>1205</v>
@@ -4290,13 +4272,13 @@
         <v>1284460</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,7 +4334,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4371,7 +4353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B08A30-7D74-4A53-B1D8-C13629F198F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5B58FC-50FF-4977-8AE2-EDB3BAE01875}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4388,7 +4370,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4495,13 +4477,13 @@
         <v>4821</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -4510,13 +4492,13 @@
         <v>23354</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -4525,13 +4507,13 @@
         <v>28175</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4528,13 @@
         <v>9656</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>281</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
         <v>59</v>
@@ -4561,13 +4543,13 @@
         <v>34455</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M5" s="7">
         <v>76</v>
@@ -4576,13 +4558,13 @@
         <v>44110</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4579,13 @@
         <v>272995</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H6" s="7">
         <v>919</v>
@@ -4612,13 +4594,13 @@
         <v>497712</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>291</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M6" s="7">
         <v>1321</v>
@@ -4627,13 +4609,13 @@
         <v>770706</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4683,13 @@
         <v>2386</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -4716,13 +4698,13 @@
         <v>3346</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>135</v>
+        <v>292</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -4731,13 +4713,13 @@
         <v>5732</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4734,13 @@
         <v>5255</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -4767,13 +4749,13 @@
         <v>8436</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M9" s="7">
         <v>23</v>
@@ -4782,13 +4764,13 @@
         <v>13691</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>308</v>
+        <v>157</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4785,13 @@
         <v>286925</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H10" s="7">
         <v>506</v>
@@ -4818,13 +4800,13 @@
         <v>373724</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>227</v>
+        <v>309</v>
       </c>
       <c r="M10" s="7">
         <v>922</v>
@@ -4833,13 +4815,13 @@
         <v>660649</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,7 +4895,7 @@
         <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4928,7 +4910,7 @@
         <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4943,7 +4925,7 @@
         <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4940,13 @@
         <v>722</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>322</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4973,13 +4955,13 @@
         <v>1081</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4988,13 +4970,13 @@
         <v>1803</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>22</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,10 +4991,10 @@
         <v>111264</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>62</v>
@@ -5024,10 +5006,10 @@
         <v>77164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>39</v>
+        <v>324</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>62</v>
@@ -5039,13 +5021,13 @@
         <v>188428</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5095,13 @@
         <v>7208</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -5131,10 +5113,10 @@
         <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -5143,13 +5125,13 @@
         <v>33907</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>333</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>338</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,13 +5146,13 @@
         <v>15633</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>27</v>
+        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>77</v>
@@ -5179,13 +5161,13 @@
         <v>43971</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -5194,13 +5176,13 @@
         <v>59604</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>342</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>343</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,28 +5197,28 @@
         <v>671184</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H18" s="7">
         <v>1575</v>
       </c>
       <c r="I18" s="7">
-        <v>948601</v>
+        <v>948600</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>348</v>
+        <v>181</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="M18" s="7">
         <v>2560</v>
@@ -5245,13 +5227,13 @@
         <v>1619784</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>145</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,7 +5260,7 @@
         <v>1699</v>
       </c>
       <c r="I19" s="7">
-        <v>1019272</v>
+        <v>1019271</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5307,7 +5289,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5405-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5405-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AE8195A-D30B-45DD-BC65-6D661BF4B90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B6EF026-9BEF-47E2-A9E9-F2D4246D5CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{945E23E8-512E-42DB-A86D-4C7F5979D62A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{269B8D11-C4ED-4DF6-8634-DD3727635187}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="348">
   <si>
     <t>Población según si es capaz de usar un telefono en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,991 +80,997 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>3,18%</t>
+    <t>3,2%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
   </si>
   <si>
     <t>4,42%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>91,4%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
   </si>
   <si>
     <t>95,22%</t>
@@ -1488,7 +1494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82ADB852-9D81-4F1B-BC34-F453B9DB607F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8742927-837A-4673-B477-AF9B7B4F0987}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1777,7 +1783,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587749</v>
+        <v>587750</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2263,10 +2269,10 @@
         <v>79</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,13 +2287,13 @@
         <v>18903</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -2296,13 +2302,13 @@
         <v>17765</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -2311,10 +2317,10 @@
         <v>36668</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>89</v>
@@ -2443,7 +2449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62450A2-02C0-430F-98A4-5AF497879051}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7626BB-F6D9-4838-9278-96ADA1BB585C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2597,13 +2603,13 @@
         <v>45678</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,13 +2624,13 @@
         <v>32335</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7">
         <v>40</v>
@@ -2633,13 +2639,13 @@
         <v>42715</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M5" s="7">
         <v>66</v>
@@ -2648,13 +2654,13 @@
         <v>75049</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2675,13 @@
         <v>364301</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H6" s="7">
         <v>531</v>
@@ -2684,13 +2690,13 @@
         <v>563915</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M6" s="7">
         <v>866</v>
@@ -2699,13 +2705,13 @@
         <v>928215</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,13 +2779,13 @@
         <v>1446</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2794,7 +2800,7 @@
         <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2809,7 +2815,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,13 +2830,13 @@
         <v>4127</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2839,13 +2845,13 @@
         <v>1100</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -2854,13 +2860,13 @@
         <v>5227</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2881,13 @@
         <v>113091</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -2890,13 +2896,13 @@
         <v>79550</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -2905,13 +2911,13 @@
         <v>192642</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,7 +2991,7 @@
         <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3000,7 +3006,7 @@
         <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3015,7 +3021,7 @@
         <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,7 +3042,7 @@
         <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3045,13 +3051,13 @@
         <v>1100</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3060,13 +3066,13 @@
         <v>1100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,7 +3090,7 @@
         <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -3096,10 +3102,10 @@
         <v>21146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>62</v>
@@ -3111,10 +3117,10 @@
         <v>47721</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>62</v>
@@ -3188,10 +3194,10 @@
         <v>27</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -3200,13 +3206,13 @@
         <v>30339</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -3215,13 +3221,13 @@
         <v>49548</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3242,13 @@
         <v>36462</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -3251,13 +3257,13 @@
         <v>44914</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -3266,13 +3272,13 @@
         <v>81376</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3293,13 @@
         <v>503966</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H18" s="7">
         <v>622</v>
@@ -3302,13 +3308,13 @@
         <v>664612</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M18" s="7">
         <v>1078</v>
@@ -3317,13 +3323,13 @@
         <v>1168578</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,7 +3404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602074-0855-43EB-89EA-43FFDA538A3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA31DC7-9C9D-4D9F-B9C8-7D3ED749FA0A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3415,7 +3421,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3522,13 +3528,13 @@
         <v>8491</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -3537,13 +3543,13 @@
         <v>14093</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -3552,13 +3558,13 @@
         <v>22584</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3579,13 @@
         <v>10656</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -3588,13 +3594,13 @@
         <v>39389</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -3603,13 +3609,13 @@
         <v>50045</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,16 +3627,16 @@
         <v>364</v>
       </c>
       <c r="D6" s="7">
-        <v>334754</v>
+        <v>334755</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H6" s="7">
         <v>428</v>
@@ -3639,13 +3645,13 @@
         <v>501275</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M6" s="7">
         <v>792</v>
@@ -3654,13 +3660,13 @@
         <v>836029</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,7 +3678,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353901</v>
+        <v>353902</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3728,13 +3734,13 @@
         <v>836</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3749,7 +3755,7 @@
         <v>67</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3758,13 +3764,13 @@
         <v>836</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3785,13 @@
         <v>1663</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3794,13 +3800,13 @@
         <v>2084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -3809,13 +3815,13 @@
         <v>3748</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,7 +3836,7 @@
         <v>190032</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>219</v>
@@ -3934,13 +3940,13 @@
         <v>1050</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3949,13 +3955,13 @@
         <v>1376</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -3964,13 +3970,13 @@
         <v>2426</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>230</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>128</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +3991,13 @@
         <v>868</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4006,7 +4012,7 @@
         <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4015,13 +4021,13 @@
         <v>868</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,10 +4042,10 @@
         <v>40110</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>62</v>
@@ -4051,10 +4057,10 @@
         <v>32298</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>62</v>
@@ -4066,13 +4072,13 @@
         <v>72408</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4146,13 @@
         <v>10378</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -4158,10 +4164,10 @@
         <v>42</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4170,7 +4176,7 @@
         <v>25847</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>248</v>
@@ -4224,10 +4230,10 @@
         <v>255</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4248,13 @@
         <v>564897</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H18" s="7">
         <v>608</v>
@@ -4257,13 +4263,13 @@
         <v>719563</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M18" s="7">
         <v>1205</v>
@@ -4272,13 +4278,13 @@
         <v>1284460</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,7 +4359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5B58FC-50FF-4977-8AE2-EDB3BAE01875}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F3DDBA-5C40-452E-B140-1B849E4C5943}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4370,7 +4376,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4477,13 +4483,13 @@
         <v>4821</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -4492,13 +4498,13 @@
         <v>23354</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -4507,13 +4513,13 @@
         <v>28175</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4534,13 @@
         <v>9656</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>273</v>
       </c>
       <c r="H5" s="7">
         <v>59</v>
@@ -4543,13 +4549,13 @@
         <v>34455</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M5" s="7">
         <v>76</v>
@@ -4558,13 +4564,13 @@
         <v>44110</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>87</v>
+        <v>278</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4585,13 @@
         <v>272995</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H6" s="7">
         <v>919</v>
@@ -4594,13 +4600,13 @@
         <v>497712</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>284</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M6" s="7">
         <v>1321</v>
@@ -4609,13 +4615,13 @@
         <v>770706</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,13 +4689,13 @@
         <v>2386</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>217</v>
+        <v>290</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -4698,13 +4704,13 @@
         <v>3346</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -4713,13 +4719,13 @@
         <v>5732</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>296</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4740,13 @@
         <v>5255</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>298</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -4749,13 +4755,13 @@
         <v>8436</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="M9" s="7">
         <v>23</v>
@@ -4764,13 +4770,13 @@
         <v>13691</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>157</v>
+        <v>300</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +4791,13 @@
         <v>286925</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H10" s="7">
         <v>506</v>
@@ -4800,13 +4806,13 @@
         <v>373724</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>308</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="M10" s="7">
         <v>922</v>
@@ -4815,13 +4821,13 @@
         <v>660649</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,7 +4901,7 @@
         <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4910,7 +4916,7 @@
         <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4925,7 +4931,7 @@
         <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +4946,13 @@
         <v>722</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>314</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4955,13 +4961,13 @@
         <v>1081</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4970,13 +4976,13 @@
         <v>1803</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,10 +4997,10 @@
         <v>111264</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>62</v>
@@ -5006,10 +5012,10 @@
         <v>77164</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>62</v>
@@ -5021,13 +5027,13 @@
         <v>188428</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5101,13 @@
         <v>7208</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -5110,13 +5116,13 @@
         <v>26700</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -5125,13 +5131,13 @@
         <v>33907</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,13 +5152,13 @@
         <v>15633</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>77</v>
@@ -5176,13 +5182,13 @@
         <v>59604</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>26</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5203,13 @@
         <v>671184</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H18" s="7">
         <v>1575</v>
@@ -5212,13 +5218,13 @@
         <v>948600</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>181</v>
+        <v>343</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M18" s="7">
         <v>2560</v>
@@ -5227,13 +5233,13 @@
         <v>1619784</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5405-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5405-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B6EF026-9BEF-47E2-A9E9-F2D4246D5CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3385C13-6428-4768-ADFE-6CB3E468014C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{269B8D11-C4ED-4DF6-8634-DD3727635187}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F60CF1E-20B2-417C-80BF-6CE0A992F175}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="352">
   <si>
     <t>Población según si es capaz de usar un telefono en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,994 +77,1009 @@
     <t>1,47%</t>
   </si>
   <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
     <t>0,54%</t>
   </si>
   <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de usar un telefono en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>93,07%</t>
@@ -1080,9 +1095,6 @@
   </si>
   <si>
     <t>93,53%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8742927-837A-4673-B477-AF9B7B4F0987}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75708DD4-A36D-4E91-B307-2A8B1A503515}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2269,10 +2281,10 @@
         <v>79</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,13 +2299,13 @@
         <v>18903</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -2302,13 +2314,13 @@
         <v>17765</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -2317,13 +2329,13 @@
         <v>36668</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2350,13 @@
         <v>476318</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>626</v>
@@ -2353,13 +2365,13 @@
         <v>639952</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M18" s="7">
         <v>1121</v>
@@ -2368,13 +2380,13 @@
         <v>1116271</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,7 +2442,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2449,7 +2461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7626BB-F6D9-4838-9278-96ADA1BB585C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E45BF5-DAE0-45CE-A206-32CBFEA9D972}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2466,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2573,13 +2585,13 @@
         <v>17763</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -2588,13 +2600,13 @@
         <v>27915</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -2603,13 +2615,13 @@
         <v>45678</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,13 +2636,13 @@
         <v>32335</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H5" s="7">
         <v>40</v>
@@ -2639,13 +2651,13 @@
         <v>42715</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
         <v>66</v>
@@ -2654,13 +2666,13 @@
         <v>75049</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2687,13 @@
         <v>364301</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H6" s="7">
         <v>531</v>
@@ -2690,13 +2702,13 @@
         <v>563915</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M6" s="7">
         <v>866</v>
@@ -2705,13 +2717,13 @@
         <v>928215</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,13 +2791,13 @@
         <v>1446</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2800,7 +2812,7 @@
         <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2812,10 +2824,10 @@
         <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,13 +2842,13 @@
         <v>4127</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2845,13 +2857,13 @@
         <v>1100</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -2860,13 +2872,13 @@
         <v>5227</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,13 +2893,13 @@
         <v>113091</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -2896,13 +2908,13 @@
         <v>79550</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -2911,7 +2923,7 @@
         <v>192642</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>147</v>
@@ -3021,7 +3033,7 @@
         <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,13 +3063,13 @@
         <v>1100</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3066,13 +3078,13 @@
         <v>1100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,7 +3102,7 @@
         <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -3102,10 +3114,10 @@
         <v>21146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>62</v>
@@ -3117,10 +3129,10 @@
         <v>47721</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>62</v>
@@ -3194,10 +3206,10 @@
         <v>27</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -3206,13 +3218,13 @@
         <v>30339</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -3221,13 +3233,13 @@
         <v>49548</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3254,13 @@
         <v>36462</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -3257,13 +3269,13 @@
         <v>44914</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -3272,13 +3284,13 @@
         <v>81376</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3305,13 @@
         <v>503966</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>622</v>
@@ -3385,7 +3397,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3404,7 +3416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA31DC7-9C9D-4D9F-B9C8-7D3ED749FA0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA59818-3562-45AA-99E6-148CFD390618}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3528,13 +3540,13 @@
         <v>8491</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -3543,13 +3555,13 @@
         <v>14093</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -3558,13 +3570,13 @@
         <v>22584</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3591,13 @@
         <v>10656</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -3594,13 +3606,13 @@
         <v>39389</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -3609,13 +3621,13 @@
         <v>50045</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3642,13 @@
         <v>334755</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H6" s="7">
         <v>428</v>
@@ -3645,13 +3657,13 @@
         <v>501275</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M6" s="7">
         <v>792</v>
@@ -3660,13 +3672,13 @@
         <v>836029</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3746,13 @@
         <v>836</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3755,7 +3767,7 @@
         <v>67</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3764,13 +3776,13 @@
         <v>836</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +3797,13 @@
         <v>1663</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3800,13 +3812,13 @@
         <v>2084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -3815,13 +3827,13 @@
         <v>3748</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3848,13 @@
         <v>190032</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H10" s="7">
         <v>155</v>
@@ -3851,10 +3863,10 @@
         <v>185990</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>62</v>
@@ -3866,13 +3878,13 @@
         <v>376022</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3952,13 @@
         <v>1050</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3955,13 +3967,13 @@
         <v>1376</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -3970,13 +3982,13 @@
         <v>2426</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +4003,13 @@
         <v>868</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4012,7 +4024,7 @@
         <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4021,13 +4033,13 @@
         <v>868</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,10 +4054,10 @@
         <v>40110</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>62</v>
@@ -4057,10 +4069,10 @@
         <v>32298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>62</v>
@@ -4072,13 +4084,13 @@
         <v>72408</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4158,13 @@
         <v>10378</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -4164,10 +4176,10 @@
         <v>42</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4176,13 +4188,13 @@
         <v>25847</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,10 +4212,10 @@
         <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -4212,13 +4224,13 @@
         <v>41474</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -4227,13 +4239,13 @@
         <v>54661</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>259</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4260,13 @@
         <v>564897</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H18" s="7">
         <v>608</v>
@@ -4263,13 +4275,13 @@
         <v>719563</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="M18" s="7">
         <v>1205</v>
@@ -4278,13 +4290,13 @@
         <v>1284460</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>94</v>
+        <v>268</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,7 +4352,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4359,7 +4371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F3DDBA-5C40-452E-B140-1B849E4C5943}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B1AD0A-B6EB-4DB9-8648-218B7C630A59}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4376,7 +4388,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4483,13 +4495,13 @@
         <v>4821</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>108</v>
+        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -4498,13 +4510,13 @@
         <v>23354</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -4513,13 +4525,13 @@
         <v>28175</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,13 +4546,13 @@
         <v>9656</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="H5" s="7">
         <v>59</v>
@@ -4549,13 +4561,13 @@
         <v>34455</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="M5" s="7">
         <v>76</v>
@@ -4564,13 +4576,13 @@
         <v>44110</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,13 +4597,13 @@
         <v>272995</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H6" s="7">
         <v>919</v>
@@ -4600,13 +4612,13 @@
         <v>497712</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M6" s="7">
         <v>1321</v>
@@ -4615,13 +4627,13 @@
         <v>770706</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,13 +4701,13 @@
         <v>2386</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -4704,13 +4716,13 @@
         <v>3346</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>291</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>293</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -4719,13 +4731,13 @@
         <v>5732</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,13 +4752,13 @@
         <v>5255</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -4755,13 +4767,13 @@
         <v>8436</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="M9" s="7">
         <v>23</v>
@@ -4770,13 +4782,13 @@
         <v>13691</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,13 +4803,13 @@
         <v>286925</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="H10" s="7">
         <v>506</v>
@@ -4806,13 +4818,13 @@
         <v>373724</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="M10" s="7">
         <v>922</v>
@@ -4821,13 +4833,13 @@
         <v>660649</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,7 +4913,7 @@
         <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4916,7 +4928,7 @@
         <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4931,7 +4943,7 @@
         <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +4958,13 @@
         <v>722</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4961,13 +4973,13 @@
         <v>1081</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4976,13 +4988,13 @@
         <v>1803</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>319</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,10 +5009,10 @@
         <v>111264</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>62</v>
@@ -5012,10 +5024,10 @@
         <v>77164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>323</v>
+        <v>39</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>62</v>
@@ -5027,13 +5039,13 @@
         <v>188428</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5113,13 @@
         <v>7208</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -5116,13 +5128,13 @@
         <v>26700</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>265</v>
+        <v>335</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -5131,13 +5143,13 @@
         <v>33907</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>332</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,13 +5164,13 @@
         <v>15633</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>334</v>
+        <v>27</v>
       </c>
       <c r="H17" s="7">
         <v>77</v>
@@ -5167,13 +5179,13 @@
         <v>43971</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>336</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -5182,13 +5194,13 @@
         <v>59604</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>342</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,28 +5215,28 @@
         <v>671184</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H18" s="7">
         <v>1575</v>
       </c>
       <c r="I18" s="7">
-        <v>948600</v>
+        <v>948601</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M18" s="7">
         <v>2560</v>
@@ -5233,13 +5245,13 @@
         <v>1619784</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>347</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,7 +5278,7 @@
         <v>1699</v>
       </c>
       <c r="I19" s="7">
-        <v>1019271</v>
+        <v>1019272</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5295,7 +5307,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5405-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5405-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3385C13-6428-4768-ADFE-6CB3E468014C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C762741C-080A-4DDD-A28A-D79091EAE15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F60CF1E-20B2-417C-80BF-6CE0A992F175}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{64020739-9349-4BC9-AD92-2839DE286E2E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="346">
   <si>
     <t>Población según si es capaz de usar un telefono en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -860,241 +860,223 @@
     <t>0,79%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
   </si>
   <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75708DD4-A36D-4E91-B307-2A8B1A503515}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C27BAC-E328-4255-9701-14D4C6DE4D63}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1795,7 +1777,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2461,7 +2443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E45BF5-DAE0-45CE-A206-32CBFEA9D972}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EDF88B-5916-4D67-8631-454AF1C02FD3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3416,7 +3398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA59818-3562-45AA-99E6-148CFD390618}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6340955D-CAC9-469F-9D01-18B28EB2F90C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3639,7 +3621,7 @@
         <v>364</v>
       </c>
       <c r="D6" s="7">
-        <v>334755</v>
+        <v>334754</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>204</v>
@@ -3690,7 +3672,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4371,7 +4353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B1AD0A-B6EB-4DB9-8648-218B7C630A59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35F596B-EAB1-4459-80A5-986472553BB9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4492,7 +4474,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>4821</v>
+        <v>4526</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>271</v>
@@ -4501,37 +4483,37 @@
         <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
       </c>
       <c r="I4" s="7">
-        <v>23354</v>
+        <v>20892</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
       </c>
       <c r="N4" s="7">
-        <v>28175</v>
+        <v>25418</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,46 +4525,46 @@
         <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>9656</v>
+        <v>9327</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H5" s="7">
         <v>59</v>
       </c>
       <c r="I5" s="7">
-        <v>34455</v>
+        <v>30330</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M5" s="7">
         <v>76</v>
       </c>
       <c r="N5" s="7">
-        <v>44110</v>
+        <v>39657</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>285</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>189</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,46 +4576,46 @@
         <v>402</v>
       </c>
       <c r="D6" s="7">
-        <v>272995</v>
+        <v>255391</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H6" s="7">
         <v>919</v>
       </c>
       <c r="I6" s="7">
-        <v>497712</v>
+        <v>449511</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>292</v>
+        <v>185</v>
       </c>
       <c r="M6" s="7">
         <v>1321</v>
       </c>
       <c r="N6" s="7">
-        <v>770706</v>
+        <v>704901</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>293</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,7 +4627,7 @@
         <v>428</v>
       </c>
       <c r="D7" s="7">
-        <v>287472</v>
+        <v>269244</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4660,7 +4642,7 @@
         <v>1019</v>
       </c>
       <c r="I7" s="7">
-        <v>555520</v>
+        <v>500733</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4675,7 +4657,7 @@
         <v>1447</v>
       </c>
       <c r="N7" s="7">
-        <v>842991</v>
+        <v>769976</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4698,46 +4680,46 @@
         <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>2386</v>
+        <v>2229</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>3346</v>
+        <v>2926</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>135</v>
+        <v>295</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>299</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>296</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
       </c>
       <c r="N8" s="7">
-        <v>5732</v>
+        <v>5155</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,46 +4731,46 @@
         <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>5255</v>
+        <v>4816</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>195</v>
+        <v>299</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
       </c>
       <c r="I9" s="7">
-        <v>8436</v>
+        <v>7621</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>306</v>
+        <v>213</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M9" s="7">
         <v>23</v>
       </c>
       <c r="N9" s="7">
-        <v>13691</v>
+        <v>12437</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>310</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,46 +4782,46 @@
         <v>416</v>
       </c>
       <c r="D10" s="7">
-        <v>286925</v>
+        <v>266212</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="H10" s="7">
         <v>506</v>
       </c>
       <c r="I10" s="7">
-        <v>373724</v>
+        <v>444489</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>227</v>
+        <v>308</v>
       </c>
       <c r="M10" s="7">
         <v>922</v>
       </c>
       <c r="N10" s="7">
-        <v>660649</v>
+        <v>710701</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,7 +4833,7 @@
         <v>426</v>
       </c>
       <c r="D11" s="7">
-        <v>294566</v>
+        <v>273257</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -4866,7 +4848,7 @@
         <v>528</v>
       </c>
       <c r="I11" s="7">
-        <v>385506</v>
+        <v>455036</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4881,7 +4863,7 @@
         <v>954</v>
       </c>
       <c r="N11" s="7">
-        <v>680072</v>
+        <v>728293</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4913,7 +4895,7 @@
         <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4928,7 +4910,7 @@
         <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4943,7 +4925,7 @@
         <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,46 +4937,46 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>722</v>
+        <v>617</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1081</v>
+        <v>981</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>325</v>
+        <v>26</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>1803</v>
+        <v>1598</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>22</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +4988,13 @@
         <v>167</v>
       </c>
       <c r="D14" s="7">
-        <v>111264</v>
+        <v>104369</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>62</v>
@@ -5021,13 +5003,13 @@
         <v>150</v>
       </c>
       <c r="I14" s="7">
-        <v>77164</v>
+        <v>70344</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>39</v>
+        <v>240</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>62</v>
@@ -5036,16 +5018,16 @@
         <v>317</v>
       </c>
       <c r="N14" s="7">
-        <v>188428</v>
+        <v>174713</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,7 +5039,7 @@
         <v>168</v>
       </c>
       <c r="D15" s="7">
-        <v>111986</v>
+        <v>104986</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5072,7 +5054,7 @@
         <v>152</v>
       </c>
       <c r="I15" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5087,7 +5069,7 @@
         <v>320</v>
       </c>
       <c r="N15" s="7">
-        <v>190231</v>
+        <v>176311</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5110,46 +5092,46 @@
         <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>7208</v>
+        <v>6755</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
       </c>
       <c r="I16" s="7">
-        <v>26700</v>
+        <v>23818</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>328</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
       </c>
       <c r="N16" s="7">
-        <v>33907</v>
+        <v>30573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,46 +5143,46 @@
         <v>25</v>
       </c>
       <c r="D17" s="7">
-        <v>15633</v>
+        <v>14760</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>154</v>
+        <v>332</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>339</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="H17" s="7">
         <v>77</v>
       </c>
       <c r="I17" s="7">
-        <v>43971</v>
+        <v>38933</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>273</v>
+        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
       </c>
       <c r="N17" s="7">
-        <v>59604</v>
+        <v>53692</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>134</v>
+        <v>335</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,46 +5194,46 @@
         <v>985</v>
       </c>
       <c r="D18" s="7">
-        <v>671184</v>
+        <v>625973</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>344</v>
+        <v>206</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="H18" s="7">
         <v>1575</v>
       </c>
       <c r="I18" s="7">
-        <v>948601</v>
+        <v>964342</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="M18" s="7">
         <v>2560</v>
       </c>
       <c r="N18" s="7">
-        <v>1619784</v>
+        <v>1590315</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>145</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,7 +5245,7 @@
         <v>1022</v>
       </c>
       <c r="D19" s="7">
-        <v>694024</v>
+        <v>647487</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5278,7 +5260,7 @@
         <v>1699</v>
       </c>
       <c r="I19" s="7">
-        <v>1019272</v>
+        <v>1027093</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5293,7 +5275,7 @@
         <v>2721</v>
       </c>
       <c r="N19" s="7">
-        <v>1713295</v>
+        <v>1674580</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
